--- a/FCI_Fin/Output/List_DPT.xlsx
+++ b/FCI_Fin/Output/List_DPT.xlsx
@@ -6,10 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="rr" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="r_rice" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="r_wheat" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="wheat" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="rice" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -19,13 +17,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -77,12 +80,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -462,15 +468,233 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>From</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>From_state</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>To</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>To_state</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Cost</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TTO</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>FCSJ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Jammu &amp; Kashmir</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8.351100000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BLZ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>FGSG</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>15.417</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>KNNN</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>RBL</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>26.4762</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SFMU</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NYN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>29.5785</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TAPA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>FIK</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>28.0314</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -480,7 +704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,216 +713,148 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="n">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>From</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>From_state</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>To</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>To_state</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Cost</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>('JHL', 'KOTA')</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SHDM</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>BJO</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8.351100000000001</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>('SHDM', 'PKYN')</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MKS</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SKB</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>21.7728</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>('KUN', 'FZD')</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>('TRR', 'MBA')</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>('BLZ', 'MSGS')</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>('KMNN', 'CH')</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>('BSPN', 'MAU')</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>('MQS', 'PRTP')</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>('PGW', 'CLW')</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>('MET', 'PHY')</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>('MOGA', 'POU')</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>('KUN', 'ALJN')</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>('BTI', 'ORAI')</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>('QRP', 'BJO')</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>('MOGA', 'CWCB')</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>('DUI', 'BLQR')</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DUI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CLW</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>28.0314</v>
       </c>
     </row>
   </sheetData>
